--- a/rank_vs_features.xlsx
+++ b/rank_vs_features.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Rank</t>
   </si>
   <si>
-    <t>Incidence rate_avg</t>
-  </si>
-  <si>
-    <t>R rate_avg</t>
-  </si>
-  <si>
-    <t>Experience_avg</t>
-  </si>
-  <si>
-    <t>Purchases_avg</t>
+    <t>Incidence rate</t>
+  </si>
+  <si>
+    <t>R rate</t>
+  </si>
+  <si>
+    <t>Satisfaction</t>
+  </si>
+  <si>
+    <t>Experience</t>
+  </si>
+  <si>
+    <t>Purchases</t>
   </si>
   <si>
     <t>Rank_number</t>
@@ -40,28 +43,28 @@
     <t>Ambassador</t>
   </si>
   <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Gold Plus</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Platinum Plus</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Silver Plus</t>
+  </si>
+  <si>
+    <t>Titanium</t>
+  </si>
+  <si>
     <t>Titanium Plus</t>
-  </si>
-  <si>
-    <t>Titanium</t>
-  </si>
-  <si>
-    <t>Platinum Plus</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>Gold Plus</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Silver Plus</t>
-  </si>
-  <si>
-    <t>Silver</t>
   </si>
   <si>
     <t>unknown</t>
@@ -422,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,13 +453,16 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>5.799</v>
@@ -465,232 +471,259 @@
         <v>1.071</v>
       </c>
       <c r="E2">
+        <v>27.915</v>
+      </c>
+      <c r="F2">
         <v>0.578</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>20.278</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>9</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>4.136</v>
+      </c>
+      <c r="D3">
+        <v>0.92</v>
+      </c>
+      <c r="E3">
+        <v>4.735</v>
+      </c>
+      <c r="F3">
+        <v>0.437</v>
+      </c>
+      <c r="G3">
+        <v>4.727</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>4.052</v>
+      </c>
+      <c r="D4">
+        <v>1.261</v>
+      </c>
+      <c r="E4">
+        <v>7.754</v>
+      </c>
+      <c r="F4">
+        <v>0.427</v>
+      </c>
+      <c r="G4">
+        <v>5.76</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>4.424</v>
+      </c>
+      <c r="D5">
+        <v>1.193</v>
+      </c>
+      <c r="E5">
+        <v>14.954</v>
+      </c>
+      <c r="F5">
+        <v>0.525</v>
+      </c>
+      <c r="G5">
+        <v>6.351</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>5.734</v>
+      </c>
+      <c r="D6">
+        <v>1.288</v>
+      </c>
+      <c r="E6">
+        <v>17.849</v>
+      </c>
+      <c r="F6">
+        <v>0.481</v>
+      </c>
+      <c r="G6">
+        <v>8.462999999999999</v>
+      </c>
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1.733</v>
+      </c>
+      <c r="E7">
+        <v>-25</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>4.023</v>
+      </c>
+      <c r="D8">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="E8">
+        <v>4.301</v>
+      </c>
+      <c r="F8">
+        <v>0.634</v>
+      </c>
+      <c r="G8">
+        <v>4.659</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>5.586</v>
+      </c>
+      <c r="D9">
+        <v>1.111</v>
+      </c>
+      <c r="E9">
+        <v>18.691</v>
+      </c>
+      <c r="F9">
+        <v>0.473</v>
+      </c>
+      <c r="G9">
+        <v>11.522</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>2.5</v>
+      </c>
+      <c r="D10">
+        <v>1.64</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>4.07</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>2.5</v>
-      </c>
-      <c r="D3">
-        <v>1.64</v>
-      </c>
-      <c r="E3">
-        <v>4.07</v>
-      </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="H3">
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>5.586</v>
-      </c>
-      <c r="D4">
-        <v>1.111</v>
-      </c>
-      <c r="E4">
-        <v>0.473</v>
-      </c>
-      <c r="F4">
-        <v>11.522</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>5.734</v>
-      </c>
-      <c r="D5">
-        <v>1.288</v>
-      </c>
-      <c r="E5">
-        <v>0.481</v>
-      </c>
-      <c r="F5">
-        <v>8.462999999999999</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>4.424</v>
-      </c>
-      <c r="D6">
-        <v>1.193</v>
-      </c>
-      <c r="E6">
-        <v>0.525</v>
-      </c>
-      <c r="F6">
-        <v>6.351</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>4.052</v>
-      </c>
-      <c r="D7">
-        <v>1.261</v>
-      </c>
-      <c r="E7">
-        <v>0.427</v>
-      </c>
-      <c r="F7">
-        <v>5.76</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>4.136</v>
-      </c>
-      <c r="D8">
-        <v>0.92</v>
-      </c>
-      <c r="E8">
-        <v>0.437</v>
-      </c>
-      <c r="F8">
-        <v>4.727</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>4.023</v>
-      </c>
-      <c r="D9">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="E9">
-        <v>0.634</v>
-      </c>
-      <c r="F9">
-        <v>4.659</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10">
-        <v>1.733</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -699,15 +732,18 @@
         <v>2.07</v>
       </c>
       <c r="E11">
+        <v>41.665</v>
+      </c>
+      <c r="F11">
         <v>1.715</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5.5</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>2</v>
       </c>
     </row>
